--- a/data/pca/factorExposure/factorExposure_2011-04-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.006940250320636468</v>
+        <v>-0.01281098542198186</v>
       </c>
       <c r="C2">
-        <v>-0.002231179253967409</v>
+        <v>-0.002669584022149714</v>
       </c>
       <c r="D2">
-        <v>-0.04757048369949781</v>
+        <v>0.0004881779158197632</v>
       </c>
       <c r="E2">
-        <v>0.00158877865380732</v>
+        <v>0.01560786689151629</v>
       </c>
       <c r="F2">
-        <v>0.005911066189669706</v>
+        <v>-0.03091156824530183</v>
       </c>
       <c r="G2">
-        <v>-0.01483434095828778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0028972096258897</v>
+      </c>
+      <c r="H2">
+        <v>-0.01002904876419908</v>
+      </c>
+      <c r="I2">
+        <v>0.04404992725044179</v>
+      </c>
+      <c r="J2">
+        <v>0.06149193876725957</v>
+      </c>
+      <c r="K2">
+        <v>0.0204452708936898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1045100328445595</v>
+        <v>-0.1136786695510387</v>
       </c>
       <c r="C4">
-        <v>-0.02790978867230822</v>
+        <v>-0.06250213552183979</v>
       </c>
       <c r="D4">
-        <v>-0.04618346179566008</v>
+        <v>-0.00244022212978743</v>
       </c>
       <c r="E4">
-        <v>0.06010868117682729</v>
+        <v>0.01116300385719867</v>
       </c>
       <c r="F4">
-        <v>0.03510712114407359</v>
+        <v>-0.02977809446227998</v>
       </c>
       <c r="G4">
-        <v>-0.0281901943341933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.06605698821554068</v>
+      </c>
+      <c r="H4">
+        <v>-0.1409113833247327</v>
+      </c>
+      <c r="I4">
+        <v>0.01382405148023006</v>
+      </c>
+      <c r="J4">
+        <v>-0.04123424533772629</v>
+      </c>
+      <c r="K4">
+        <v>-0.02647863992974923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1297013696933581</v>
+        <v>-0.1266111656414127</v>
       </c>
       <c r="C6">
-        <v>-0.02557443968002393</v>
+        <v>-0.03393607553842887</v>
       </c>
       <c r="D6">
-        <v>-0.03444355718125887</v>
+        <v>-0.01445532729313951</v>
       </c>
       <c r="E6">
-        <v>-0.01046556910552309</v>
+        <v>-0.01624158691373145</v>
       </c>
       <c r="F6">
-        <v>-0.1360333548363769</v>
+        <v>-0.002339025034045396</v>
       </c>
       <c r="G6">
-        <v>0.1167061862170366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.07882927484798009</v>
+      </c>
+      <c r="H6">
+        <v>-0.03012369363368303</v>
+      </c>
+      <c r="I6">
+        <v>-0.198603070327874</v>
+      </c>
+      <c r="J6">
+        <v>-0.367339885653277</v>
+      </c>
+      <c r="K6">
+        <v>0.1703086567203271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.09220349781522147</v>
+        <v>-0.07456430073255503</v>
       </c>
       <c r="C7">
-        <v>-0.04217516849744299</v>
+        <v>-0.06658197740788337</v>
       </c>
       <c r="D7">
-        <v>-0.04188699674036593</v>
+        <v>-0.02991901469672911</v>
       </c>
       <c r="E7">
-        <v>0.02721917786525445</v>
+        <v>0.01874820258569649</v>
       </c>
       <c r="F7">
-        <v>-0.02220793542368887</v>
+        <v>-0.05238051895443352</v>
       </c>
       <c r="G7">
-        <v>-0.03307376128622758</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02506159672087929</v>
+      </c>
+      <c r="H7">
+        <v>-0.03924442776812328</v>
+      </c>
+      <c r="I7">
+        <v>-0.008314290176462074</v>
+      </c>
+      <c r="J7">
+        <v>0.01612365863913517</v>
+      </c>
+      <c r="K7">
+        <v>-0.102250119032689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04367161179021078</v>
+        <v>-0.05270582577241278</v>
       </c>
       <c r="C8">
-        <v>0.02209726033416804</v>
+        <v>-0.01704536879199387</v>
       </c>
       <c r="D8">
-        <v>-0.08384509072366179</v>
+        <v>-0.01553363049494088</v>
       </c>
       <c r="E8">
-        <v>0.08153635421177106</v>
+        <v>0.01329428408376777</v>
       </c>
       <c r="F8">
-        <v>0.01826870107784184</v>
+        <v>-0.01806626012136653</v>
       </c>
       <c r="G8">
-        <v>-0.1298891954977529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.09201171887748606</v>
+      </c>
+      <c r="H8">
+        <v>-0.1153677526512317</v>
+      </c>
+      <c r="I8">
+        <v>0.005985398375951434</v>
+      </c>
+      <c r="J8">
+        <v>-0.02806785473338193</v>
+      </c>
+      <c r="K8">
+        <v>-0.01893444875935512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.09486308885263613</v>
+        <v>-0.08410276266816739</v>
       </c>
       <c r="C9">
-        <v>-0.03768888081617254</v>
+        <v>-0.05514265530804897</v>
       </c>
       <c r="D9">
-        <v>-0.03680889750176876</v>
+        <v>-0.009249190963560769</v>
       </c>
       <c r="E9">
-        <v>0.04645059513338522</v>
+        <v>0.01924142193976678</v>
       </c>
       <c r="F9">
-        <v>0.02324314246202594</v>
+        <v>-0.01980363046059759</v>
       </c>
       <c r="G9">
-        <v>-0.06613830823012137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06474294140939615</v>
+      </c>
+      <c r="H9">
+        <v>-0.1231174035910194</v>
+      </c>
+      <c r="I9">
+        <v>-0.008217076457570645</v>
+      </c>
+      <c r="J9">
+        <v>-0.01356079806334491</v>
+      </c>
+      <c r="K9">
+        <v>-0.00148292372857865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.03740939823176409</v>
+        <v>-0.0989047937737223</v>
       </c>
       <c r="C10">
-        <v>0.1556509036413198</v>
+        <v>0.1656010111218204</v>
       </c>
       <c r="D10">
-        <v>-0.09135907382480012</v>
+        <v>0.04313520514044284</v>
       </c>
       <c r="E10">
-        <v>0.02650534253902699</v>
+        <v>0.006941363635983529</v>
       </c>
       <c r="F10">
-        <v>-0.03365603544430657</v>
+        <v>-0.05230290253711022</v>
       </c>
       <c r="G10">
-        <v>-0.01472910807951584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.004464578849732314</v>
+      </c>
+      <c r="H10">
+        <v>0.01069223940312536</v>
+      </c>
+      <c r="I10">
+        <v>-0.01756572461320421</v>
+      </c>
+      <c r="J10">
+        <v>-0.03539112943784944</v>
+      </c>
+      <c r="K10">
+        <v>-0.05511005637014576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07647443440175614</v>
+        <v>-0.07596264244622469</v>
       </c>
       <c r="C11">
-        <v>-0.06051779180158158</v>
+        <v>-0.06706144152375296</v>
       </c>
       <c r="D11">
-        <v>-0.00608298082797749</v>
+        <v>-0.03221564682446095</v>
       </c>
       <c r="E11">
-        <v>-0.006271288387372324</v>
+        <v>0.03790063947127308</v>
       </c>
       <c r="F11">
-        <v>0.01368575734481078</v>
+        <v>0.002214190180317211</v>
       </c>
       <c r="G11">
-        <v>-0.1491405651144567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.07403489153688755</v>
+      </c>
+      <c r="H11">
+        <v>-0.1110238039855441</v>
+      </c>
+      <c r="I11">
+        <v>-0.006478792095102068</v>
+      </c>
+      <c r="J11">
+        <v>0.1155408037168129</v>
+      </c>
+      <c r="K11">
+        <v>0.03115425794130101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.072408529556399</v>
+        <v>-0.07246689196133768</v>
       </c>
       <c r="C12">
-        <v>-0.03847147488345432</v>
+        <v>-0.0577442972501969</v>
       </c>
       <c r="D12">
-        <v>-0.0005476790794239343</v>
+        <v>-0.03479894240471632</v>
       </c>
       <c r="E12">
-        <v>0.03163485966605323</v>
+        <v>0.05514721604341809</v>
       </c>
       <c r="F12">
-        <v>0.003437075004373754</v>
+        <v>0.003404054359169498</v>
       </c>
       <c r="G12">
-        <v>-0.1389972815921167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.09488851712615219</v>
+      </c>
+      <c r="H12">
+        <v>-0.1084904273458939</v>
+      </c>
+      <c r="I12">
+        <v>-0.02351996236010452</v>
+      </c>
+      <c r="J12">
+        <v>0.09836226878352476</v>
+      </c>
+      <c r="K12">
+        <v>0.0163465796980895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.06308278344332659</v>
+        <v>-0.03994624581001137</v>
       </c>
       <c r="C13">
-        <v>-0.007760435379393049</v>
+        <v>-0.02728864282977625</v>
       </c>
       <c r="D13">
-        <v>-0.008317094957569124</v>
+        <v>-0.01559019012417486</v>
       </c>
       <c r="E13">
-        <v>0.02263051543844816</v>
+        <v>-0.008107765907599764</v>
       </c>
       <c r="F13">
-        <v>0.04131314903974077</v>
+        <v>-0.02258166488854789</v>
       </c>
       <c r="G13">
-        <v>-0.06257481332121553</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.03602313462455312</v>
+      </c>
+      <c r="H13">
+        <v>-0.04821676677743134</v>
+      </c>
+      <c r="I13">
+        <v>-0.02337657977152277</v>
+      </c>
+      <c r="J13">
+        <v>-0.04103447805012645</v>
+      </c>
+      <c r="K13">
+        <v>-0.04044778509398273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.05423874629675891</v>
+        <v>-0.04422975198622767</v>
       </c>
       <c r="C14">
-        <v>-0.00216615049137022</v>
+        <v>-0.02225241112379498</v>
       </c>
       <c r="D14">
-        <v>-0.03517946412231596</v>
+        <v>0.002718398501496691</v>
       </c>
       <c r="E14">
-        <v>0.02594426838617892</v>
+        <v>0.01927578186431146</v>
       </c>
       <c r="F14">
-        <v>0.007492089455050551</v>
+        <v>-0.000130691095321682</v>
       </c>
       <c r="G14">
-        <v>-0.07168729463383676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04937737916596922</v>
+      </c>
+      <c r="H14">
+        <v>-0.05254577548545043</v>
+      </c>
+      <c r="I14">
+        <v>0.01789010539245236</v>
+      </c>
+      <c r="J14">
+        <v>-0.04576380298265379</v>
+      </c>
+      <c r="K14">
+        <v>-0.03052880917993292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.03917613620153619</v>
+        <v>-0.02362825418437089</v>
       </c>
       <c r="C15">
-        <v>0.01164250937543776</v>
+        <v>-0.008642863780641621</v>
       </c>
       <c r="D15">
-        <v>-0.01010002621188777</v>
+        <v>0.0004877516158878955</v>
       </c>
       <c r="E15">
-        <v>0.006881017295013715</v>
+        <v>-0.02707528189248979</v>
       </c>
       <c r="F15">
-        <v>0.02494740329536315</v>
+        <v>-0.02317636837784071</v>
       </c>
       <c r="G15">
-        <v>-0.02069244591721337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.01904844990434272</v>
+      </c>
+      <c r="H15">
+        <v>-0.0117390333473781</v>
+      </c>
+      <c r="I15">
+        <v>-0.01009566189143261</v>
+      </c>
+      <c r="J15">
+        <v>-0.05276792738402097</v>
+      </c>
+      <c r="K15">
+        <v>-0.03961804795968624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.07990257603279531</v>
+        <v>-0.07997124072409885</v>
       </c>
       <c r="C16">
-        <v>-0.070828181154071</v>
+        <v>-0.06717670383419601</v>
       </c>
       <c r="D16">
-        <v>-0.01479444584748447</v>
+        <v>-0.04206703998263885</v>
       </c>
       <c r="E16">
-        <v>0.03408499959955993</v>
+        <v>0.039843339369058</v>
       </c>
       <c r="F16">
-        <v>0.03701602218103842</v>
+        <v>-0.004022055394890486</v>
       </c>
       <c r="G16">
-        <v>-0.1106060645566783</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.1007589013307559</v>
+      </c>
+      <c r="H16">
+        <v>-0.1022550929317013</v>
+      </c>
+      <c r="I16">
+        <v>-0.005085033965589566</v>
+      </c>
+      <c r="J16">
+        <v>0.1199873443065412</v>
+      </c>
+      <c r="K16">
+        <v>0.009990846044281092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05083053478431225</v>
+        <v>-0.04928956447579451</v>
       </c>
       <c r="C20">
-        <v>-0.01938082429823183</v>
+        <v>-0.0394955335689545</v>
       </c>
       <c r="D20">
-        <v>-0.01769838987795118</v>
+        <v>0.01409927370387054</v>
       </c>
       <c r="E20">
-        <v>0.02106139131579981</v>
+        <v>-0.003330507283845711</v>
       </c>
       <c r="F20">
-        <v>0.009541798759038839</v>
+        <v>-0.01587407946042307</v>
       </c>
       <c r="G20">
-        <v>-0.1081532291557426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05140866371097886</v>
+      </c>
+      <c r="H20">
+        <v>-0.05418287078185463</v>
+      </c>
+      <c r="I20">
+        <v>2.649538447590561e-05</v>
+      </c>
+      <c r="J20">
+        <v>-0.02299158777587686</v>
+      </c>
+      <c r="K20">
+        <v>-0.05634013133108243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02647113490650395</v>
+        <v>-0.02726452309593482</v>
       </c>
       <c r="C21">
-        <v>-0.03331140769127389</v>
+        <v>-0.02141125292779492</v>
       </c>
       <c r="D21">
-        <v>0.003461411283399459</v>
+        <v>0.0277584786972311</v>
       </c>
       <c r="E21">
-        <v>0.01089556925449033</v>
+        <v>-0.009951050102467924</v>
       </c>
       <c r="F21">
-        <v>-0.09105704793978436</v>
+        <v>0.01473949012915492</v>
       </c>
       <c r="G21">
-        <v>0.05392160217757422</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04413441015973765</v>
+      </c>
+      <c r="H21">
+        <v>-0.07950289414305245</v>
+      </c>
+      <c r="I21">
+        <v>-0.072040511145601</v>
+      </c>
+      <c r="J21">
+        <v>-0.03437937894049274</v>
+      </c>
+      <c r="K21">
+        <v>-0.1140560128540705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04490117080015318</v>
+        <v>-0.03551116550247185</v>
       </c>
       <c r="C22">
-        <v>-0.002756112611831526</v>
+        <v>-0.0165952699430996</v>
       </c>
       <c r="D22">
-        <v>-0.003420668995473066</v>
+        <v>-0.0683202457998226</v>
       </c>
       <c r="E22">
-        <v>0.5624374255291847</v>
+        <v>-0.4927176043195441</v>
       </c>
       <c r="F22">
-        <v>0.08010686731319054</v>
+        <v>-0.4201197226176389</v>
       </c>
       <c r="G22">
-        <v>0.3145840681973947</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1239175182663604</v>
+      </c>
+      <c r="H22">
+        <v>0.1313332311987102</v>
+      </c>
+      <c r="I22">
+        <v>-0.01674174586510369</v>
+      </c>
+      <c r="J22">
+        <v>0.07855842351427407</v>
+      </c>
+      <c r="K22">
+        <v>0.05491023944331772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04493390511693594</v>
+        <v>-0.03571763497192337</v>
       </c>
       <c r="C23">
-        <v>-0.003431249594144426</v>
+        <v>-0.0172388489431252</v>
       </c>
       <c r="D23">
-        <v>-0.004586077062017634</v>
+        <v>-0.06966428721125806</v>
       </c>
       <c r="E23">
-        <v>0.5622429467445419</v>
+        <v>-0.4941955915329868</v>
       </c>
       <c r="F23">
-        <v>0.08089679394016787</v>
+        <v>-0.4217613692421671</v>
       </c>
       <c r="G23">
-        <v>0.3159754686912455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.1250220565359043</v>
+      </c>
+      <c r="H23">
+        <v>0.1276997313817134</v>
+      </c>
+      <c r="I23">
+        <v>-0.01552423363009581</v>
+      </c>
+      <c r="J23">
+        <v>0.0756655384241572</v>
+      </c>
+      <c r="K23">
+        <v>0.05746493968314013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08558918188670513</v>
+        <v>-0.08256156523395279</v>
       </c>
       <c r="C24">
-        <v>-0.04625819131483726</v>
+        <v>-0.06153940677635292</v>
       </c>
       <c r="D24">
-        <v>-0.02176531409007534</v>
+        <v>-0.01940964927572435</v>
       </c>
       <c r="E24">
-        <v>0.03480930866836032</v>
+        <v>0.03265061856561509</v>
       </c>
       <c r="F24">
-        <v>0.004785860064119156</v>
+        <v>-0.001737589625247456</v>
       </c>
       <c r="G24">
-        <v>-0.1167576893424708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.09648597394746841</v>
+      </c>
+      <c r="H24">
+        <v>-0.1027660718420947</v>
+      </c>
+      <c r="I24">
+        <v>-0.01054467133960686</v>
+      </c>
+      <c r="J24">
+        <v>0.1200242383426688</v>
+      </c>
+      <c r="K24">
+        <v>0.03797941814789847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07587045014553709</v>
+        <v>-0.08417059383893137</v>
       </c>
       <c r="C25">
-        <v>-0.0186386179596747</v>
+        <v>-0.0449762382563437</v>
       </c>
       <c r="D25">
-        <v>-0.02418578875000112</v>
+        <v>-0.0267982663831444</v>
       </c>
       <c r="E25">
-        <v>0.02513829452402812</v>
+        <v>0.0611855453419612</v>
       </c>
       <c r="F25">
-        <v>0.0002063099105932207</v>
+        <v>0.00278992730866401</v>
       </c>
       <c r="G25">
-        <v>-0.1107298259486415</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.09664485993283671</v>
+      </c>
+      <c r="H25">
+        <v>-0.09694965117138324</v>
+      </c>
+      <c r="I25">
+        <v>-4.017529308527635e-05</v>
+      </c>
+      <c r="J25">
+        <v>0.09708960169907169</v>
+      </c>
+      <c r="K25">
+        <v>0.02480572995455355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05147456535953116</v>
+        <v>-0.04442181484493998</v>
       </c>
       <c r="C26">
-        <v>-0.02080097650954703</v>
+        <v>-0.009711947187875785</v>
       </c>
       <c r="D26">
-        <v>-0.03330193127681125</v>
+        <v>0.01112904244628729</v>
       </c>
       <c r="E26">
-        <v>0.01159865644673816</v>
+        <v>-0.01478139881407542</v>
       </c>
       <c r="F26">
-        <v>0.03233603740223038</v>
+        <v>-0.001314993544038717</v>
       </c>
       <c r="G26">
-        <v>-0.05544258682531185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.05219412350247449</v>
+      </c>
+      <c r="H26">
+        <v>-0.03867327979911477</v>
+      </c>
+      <c r="I26">
+        <v>0.01248534463565029</v>
+      </c>
+      <c r="J26">
+        <v>-0.03350596241761169</v>
+      </c>
+      <c r="K26">
+        <v>-0.01882007443404273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.06054005564728513</v>
+        <v>-0.1226829195707214</v>
       </c>
       <c r="C28">
-        <v>0.2961528262522495</v>
+        <v>0.3036486682569537</v>
       </c>
       <c r="D28">
-        <v>-0.05889985324269948</v>
+        <v>-0.00506913975667905</v>
       </c>
       <c r="E28">
-        <v>-0.03360704413682999</v>
+        <v>0.009612961759044136</v>
       </c>
       <c r="F28">
-        <v>-0.04147999352396119</v>
+        <v>-0.005941233413533567</v>
       </c>
       <c r="G28">
-        <v>0.02514643719599187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01428973606058069</v>
+      </c>
+      <c r="H28">
+        <v>-0.009251608524391917</v>
+      </c>
+      <c r="I28">
+        <v>-0.01314350776577474</v>
+      </c>
+      <c r="J28">
+        <v>0.004651931699456863</v>
+      </c>
+      <c r="K28">
+        <v>-0.0197758213193775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05768146136382215</v>
+        <v>-0.04078504511302029</v>
       </c>
       <c r="C29">
-        <v>-0.007810816133155174</v>
+        <v>-0.02041380748160757</v>
       </c>
       <c r="D29">
-        <v>-0.03077148419736758</v>
+        <v>-0.007238385846383527</v>
       </c>
       <c r="E29">
-        <v>0.04341863947274056</v>
+        <v>0.03107424948364721</v>
       </c>
       <c r="F29">
-        <v>0.03809047916458933</v>
+        <v>-0.02141002869247445</v>
       </c>
       <c r="G29">
-        <v>-0.05061893038792161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.09627486631453275</v>
+      </c>
+      <c r="H29">
+        <v>-0.04674752580707614</v>
+      </c>
+      <c r="I29">
+        <v>0.003622393725883689</v>
+      </c>
+      <c r="J29">
+        <v>-0.04512832565356913</v>
+      </c>
+      <c r="K29">
+        <v>-0.0487410695996004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1143387147951897</v>
+        <v>-0.1056072039106099</v>
       </c>
       <c r="C30">
-        <v>0.01993700315015916</v>
+        <v>-0.04609831006708435</v>
       </c>
       <c r="D30">
-        <v>-0.07270056696269021</v>
+        <v>-0.06113061064700118</v>
       </c>
       <c r="E30">
-        <v>0.1958890942901854</v>
+        <v>0.009961934650984203</v>
       </c>
       <c r="F30">
-        <v>-0.0640187147296708</v>
+        <v>0.005493610918503983</v>
       </c>
       <c r="G30">
-        <v>-0.1530774147102496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.1625002094759343</v>
+      </c>
+      <c r="H30">
+        <v>-0.1156769549563536</v>
+      </c>
+      <c r="I30">
+        <v>-0.1974664541239955</v>
+      </c>
+      <c r="J30">
+        <v>0.08324362892271972</v>
+      </c>
+      <c r="K30">
+        <v>0.07197996060729057</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05774484521612587</v>
+        <v>-0.03833205942525823</v>
       </c>
       <c r="C31">
-        <v>-0.01806131882881992</v>
+        <v>-0.03831199555614587</v>
       </c>
       <c r="D31">
-        <v>0.009648118546681815</v>
+        <v>-0.004563230689924919</v>
       </c>
       <c r="E31">
-        <v>0.009125480602698702</v>
+        <v>0.001062571123249606</v>
       </c>
       <c r="F31">
-        <v>0.02623353000286138</v>
+        <v>-0.003946078765885188</v>
       </c>
       <c r="G31">
-        <v>-0.006568337412174626</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02549840611034059</v>
+      </c>
+      <c r="H31">
+        <v>-0.01858775146129295</v>
+      </c>
+      <c r="I31">
+        <v>0.03364088004114079</v>
+      </c>
+      <c r="J31">
+        <v>-0.0197407441459184</v>
+      </c>
+      <c r="K31">
+        <v>0.005983405389579882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03921382435232414</v>
+        <v>-0.0527942535372976</v>
       </c>
       <c r="C32">
-        <v>0.01800775571314336</v>
+        <v>-0.002920529221747644</v>
       </c>
       <c r="D32">
-        <v>-0.005927776779581936</v>
+        <v>0.01117962496070626</v>
       </c>
       <c r="E32">
-        <v>0.0852049782615438</v>
+        <v>0.009641981405950616</v>
       </c>
       <c r="F32">
-        <v>0.08091990469925599</v>
+        <v>0.05897497062279314</v>
       </c>
       <c r="G32">
-        <v>-0.05624264062599274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02607007155725578</v>
+      </c>
+      <c r="H32">
+        <v>-0.04407151506464704</v>
+      </c>
+      <c r="I32">
+        <v>0.002200906533063173</v>
+      </c>
+      <c r="J32">
+        <v>-0.01866501068525108</v>
+      </c>
+      <c r="K32">
+        <v>-0.0037214666743656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1115857325097355</v>
+        <v>-0.09517474490253577</v>
       </c>
       <c r="C33">
-        <v>-0.01770934105380848</v>
+        <v>-0.05071887286837118</v>
       </c>
       <c r="D33">
-        <v>0.007914694416846864</v>
+        <v>-0.06331755835194457</v>
       </c>
       <c r="E33">
-        <v>0.007690630082174109</v>
+        <v>0.0387225096603464</v>
       </c>
       <c r="F33">
-        <v>0.05583944820741215</v>
+        <v>-0.001887675699621984</v>
       </c>
       <c r="G33">
-        <v>-0.05641346227476821</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03669224018886966</v>
+      </c>
+      <c r="H33">
+        <v>-0.0564482466526699</v>
+      </c>
+      <c r="I33">
+        <v>0.01278721242268663</v>
+      </c>
+      <c r="J33">
+        <v>0.01406641748272705</v>
+      </c>
+      <c r="K33">
+        <v>0.02535077134551977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06645424145543183</v>
+        <v>-0.06698481508747862</v>
       </c>
       <c r="C34">
-        <v>-0.05220417814586892</v>
+        <v>-0.05087061915386407</v>
       </c>
       <c r="D34">
-        <v>-0.006979172599539333</v>
+        <v>-0.0240679381156407</v>
       </c>
       <c r="E34">
-        <v>0.01655792800567405</v>
+        <v>0.03647557089804935</v>
       </c>
       <c r="F34">
-        <v>0.02093685512191823</v>
+        <v>-0.002862172972802645</v>
       </c>
       <c r="G34">
-        <v>-0.09160507379021209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.09253800565458188</v>
+      </c>
+      <c r="H34">
+        <v>-0.0934303281200015</v>
+      </c>
+      <c r="I34">
+        <v>-0.009309676409584706</v>
+      </c>
+      <c r="J34">
+        <v>0.09120860910212013</v>
+      </c>
+      <c r="K34">
+        <v>-0.007362577598187059</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04472502698960629</v>
+        <v>-0.0206315408190724</v>
       </c>
       <c r="C35">
-        <v>-0.006132538504046515</v>
+        <v>-0.01657848007661436</v>
       </c>
       <c r="D35">
-        <v>0.01692993435422623</v>
+        <v>-0.01210630806361623</v>
       </c>
       <c r="E35">
-        <v>0.003783914950108204</v>
+        <v>0.009137758080442085</v>
       </c>
       <c r="F35">
-        <v>-0.03627062931381602</v>
+        <v>-0.004162877596888426</v>
       </c>
       <c r="G35">
-        <v>-0.05029859799281747</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.05401712318646321</v>
+      </c>
+      <c r="H35">
+        <v>-0.02316535314412391</v>
+      </c>
+      <c r="I35">
+        <v>-0.01429120538003393</v>
+      </c>
+      <c r="J35">
+        <v>0.00620616188943391</v>
+      </c>
+      <c r="K35">
+        <v>-0.06369765708560841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.0362747816909593</v>
+        <v>-0.02906581209951056</v>
       </c>
       <c r="C36">
-        <v>-0.00210053853598497</v>
+        <v>-0.01137044484348947</v>
       </c>
       <c r="D36">
-        <v>-0.02378276067162538</v>
+        <v>-0.004839203278926858</v>
       </c>
       <c r="E36">
-        <v>0.03319962139234277</v>
+        <v>-0.004103716946902337</v>
       </c>
       <c r="F36">
-        <v>0.006691568844074325</v>
+        <v>-0.00741566915530515</v>
       </c>
       <c r="G36">
-        <v>-0.06249253563645196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.05036686002615215</v>
+      </c>
+      <c r="H36">
+        <v>-0.05964071081578897</v>
+      </c>
+      <c r="I36">
+        <v>-0.007308048823902658</v>
+      </c>
+      <c r="J36">
+        <v>-0.02959878596586274</v>
+      </c>
+      <c r="K36">
+        <v>0.009054276972051818</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05494081890727641</v>
+        <v>-0.02238496439302181</v>
       </c>
       <c r="C38">
-        <v>-0.01564834225074281</v>
+        <v>-0.02780486018753072</v>
       </c>
       <c r="D38">
-        <v>-0.002995782185438951</v>
+        <v>-0.0116249130233638</v>
       </c>
       <c r="E38">
-        <v>0.00978057581766572</v>
+        <v>-0.00277789615924782</v>
       </c>
       <c r="F38">
-        <v>0.001343770184226639</v>
+        <v>-0.02350910301688348</v>
       </c>
       <c r="G38">
-        <v>-0.04622374596286467</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.007888717312305052</v>
+      </c>
+      <c r="H38">
+        <v>0.05434644869711425</v>
+      </c>
+      <c r="I38">
+        <v>-0.01229830664156457</v>
+      </c>
+      <c r="J38">
+        <v>-0.01108993339002231</v>
+      </c>
+      <c r="K38">
+        <v>0.01672091005117235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1086181022311486</v>
+        <v>-0.1133474946834786</v>
       </c>
       <c r="C39">
-        <v>-0.04011054848612757</v>
+        <v>-0.07793981807770034</v>
       </c>
       <c r="D39">
-        <v>-0.004363171308223653</v>
+        <v>-0.05736372937402557</v>
       </c>
       <c r="E39">
-        <v>0.0676904383565203</v>
+        <v>0.1068811239964291</v>
       </c>
       <c r="F39">
-        <v>0.009597498684331122</v>
+        <v>0.03336595815447021</v>
       </c>
       <c r="G39">
-        <v>-0.1587372262840532</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.1357387020193623</v>
+      </c>
+      <c r="H39">
+        <v>-0.0849179602494425</v>
+      </c>
+      <c r="I39">
+        <v>-0.02759796536667376</v>
+      </c>
+      <c r="J39">
+        <v>0.1818363096553956</v>
+      </c>
+      <c r="K39">
+        <v>0.01949809471204328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.05368195250865297</v>
+        <v>-0.02152526774181444</v>
       </c>
       <c r="C40">
-        <v>-0.03287400902295467</v>
+        <v>-0.057262282503295</v>
       </c>
       <c r="D40">
-        <v>0.02375073096181973</v>
+        <v>-0.00246825259989938</v>
       </c>
       <c r="E40">
-        <v>0.1010151690165114</v>
+        <v>-0.04416628451763389</v>
       </c>
       <c r="F40">
-        <v>-0.01579540399853506</v>
+        <v>-0.04620639046459967</v>
       </c>
       <c r="G40">
-        <v>-0.253687490029996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.07631810793101278</v>
+      </c>
+      <c r="H40">
+        <v>-0.09589712921708622</v>
+      </c>
+      <c r="I40">
+        <v>-0.09403105154817251</v>
+      </c>
+      <c r="J40">
+        <v>-0.01448629227254931</v>
+      </c>
+      <c r="K40">
+        <v>-0.0147794473959869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.04841928862885302</v>
+        <v>-0.03385358924200704</v>
       </c>
       <c r="C41">
-        <v>-0.02867962309124169</v>
+        <v>-0.02728651666639238</v>
       </c>
       <c r="D41">
-        <v>-0.0004965910128847831</v>
+        <v>0.003865421597752269</v>
       </c>
       <c r="E41">
-        <v>-0.01331003565782633</v>
+        <v>0.01632922154082694</v>
       </c>
       <c r="F41">
-        <v>0.02208158159406284</v>
+        <v>-0.001496199999335149</v>
       </c>
       <c r="G41">
-        <v>-0.07165103680105007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.0248381578189657</v>
+      </c>
+      <c r="H41">
+        <v>-0.01184295877696456</v>
+      </c>
+      <c r="I41">
+        <v>0.01271567411270178</v>
+      </c>
+      <c r="J41">
+        <v>-0.00540876648983468</v>
+      </c>
+      <c r="K41">
+        <v>-0.01789406351697645</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07301530652216867</v>
+        <v>-0.04866446703591945</v>
       </c>
       <c r="C43">
-        <v>-0.02682311071448775</v>
+        <v>-0.02735665211538781</v>
       </c>
       <c r="D43">
-        <v>-0.02022822424996552</v>
+        <v>-0.02101393585129883</v>
       </c>
       <c r="E43">
-        <v>0.02367431615642359</v>
+        <v>0.008896263117572727</v>
       </c>
       <c r="F43">
-        <v>0.01816753904632254</v>
+        <v>-0.01830468448573653</v>
       </c>
       <c r="G43">
-        <v>-0.01496022881259134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.03691441088713201</v>
+      </c>
+      <c r="H43">
+        <v>0.006406579111420416</v>
+      </c>
+      <c r="I43">
+        <v>0.006741410055422591</v>
+      </c>
+      <c r="J43">
+        <v>-0.001412034438870518</v>
+      </c>
+      <c r="K43">
+        <v>0.01012500997564881</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.07314565455762859</v>
+        <v>-0.1037504672677209</v>
       </c>
       <c r="C44">
-        <v>-0.0183517203290542</v>
+        <v>-0.08223450837669641</v>
       </c>
       <c r="D44">
-        <v>-0.0976806442999946</v>
+        <v>-0.06431274203142542</v>
       </c>
       <c r="E44">
-        <v>0.05906336900003954</v>
+        <v>-0.006725849027534048</v>
       </c>
       <c r="F44">
-        <v>0.03866786328864784</v>
+        <v>-0.1353825284681553</v>
       </c>
       <c r="G44">
-        <v>-0.112554197587146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.1964898249049587</v>
+      </c>
+      <c r="H44">
+        <v>-0.1319805699876785</v>
+      </c>
+      <c r="I44">
+        <v>-0.06981731178014511</v>
+      </c>
+      <c r="J44">
+        <v>-0.06958543648183559</v>
+      </c>
+      <c r="K44">
+        <v>-0.1094257070028664</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.04762302673182781</v>
+        <v>-0.0292372131515259</v>
       </c>
       <c r="C46">
-        <v>-0.0370739374314099</v>
+        <v>-0.02097926923899565</v>
       </c>
       <c r="D46">
-        <v>-0.03287620740251615</v>
+        <v>-0.01376575028533455</v>
       </c>
       <c r="E46">
-        <v>0.05096540768925163</v>
+        <v>-0.005862900176538931</v>
       </c>
       <c r="F46">
-        <v>0.01871402382846113</v>
+        <v>-0.04781839410467385</v>
       </c>
       <c r="G46">
-        <v>-0.04033382865978759</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05979839129122191</v>
+      </c>
+      <c r="H46">
+        <v>-0.01854820584732334</v>
+      </c>
+      <c r="I46">
+        <v>-0.01135782549023502</v>
+      </c>
+      <c r="J46">
+        <v>-0.02558510399977495</v>
+      </c>
+      <c r="K46">
+        <v>-0.07139826463787805</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04843679661296623</v>
+        <v>-0.04126210615563173</v>
       </c>
       <c r="C47">
-        <v>-0.0008192921290311571</v>
+        <v>-0.01867824177631775</v>
       </c>
       <c r="D47">
-        <v>-0.01008315232027144</v>
+        <v>-0.009555671173576042</v>
       </c>
       <c r="E47">
-        <v>0.06273509653915922</v>
+        <v>-0.005009593003633087</v>
       </c>
       <c r="F47">
-        <v>-0.006334026449409069</v>
+        <v>-0.01008202955149656</v>
       </c>
       <c r="G47">
-        <v>0.007058709155955435</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.0388303888232391</v>
+      </c>
+      <c r="H47">
+        <v>-0.0195941907135922</v>
+      </c>
+      <c r="I47">
+        <v>-0.004530224533701011</v>
+      </c>
+      <c r="J47">
+        <v>-0.04377068172939752</v>
+      </c>
+      <c r="K47">
+        <v>-0.02367196611986839</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04376920942488712</v>
+        <v>-0.04259630802891412</v>
       </c>
       <c r="C48">
-        <v>0.001747385262817084</v>
+        <v>-0.01037886996534914</v>
       </c>
       <c r="D48">
-        <v>0.001837392474107643</v>
+        <v>-0.00405605012352421</v>
       </c>
       <c r="E48">
-        <v>0.03503483259634907</v>
+        <v>0.006440094172154747</v>
       </c>
       <c r="F48">
-        <v>0.007688215635903969</v>
+        <v>-0.00844452685285983</v>
       </c>
       <c r="G48">
-        <v>-0.04681313518244442</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.05337545265434973</v>
+      </c>
+      <c r="H48">
+        <v>-0.05063657838507266</v>
+      </c>
+      <c r="I48">
+        <v>-0.02398457823073414</v>
+      </c>
+      <c r="J48">
+        <v>0.00137506982018697</v>
+      </c>
+      <c r="K48">
+        <v>-0.02699884579230497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.237022854634568</v>
+        <v>-0.2269285485233271</v>
       </c>
       <c r="C49">
-        <v>-0.0862441246208609</v>
+        <v>-0.05306972494679572</v>
       </c>
       <c r="D49">
-        <v>-0.02572377618520393</v>
+        <v>0.07707950082671035</v>
       </c>
       <c r="E49">
-        <v>-0.09393162416005693</v>
+        <v>0.04561758059185227</v>
       </c>
       <c r="F49">
-        <v>-0.1736537955848775</v>
+        <v>-0.001861164310449529</v>
       </c>
       <c r="G49">
-        <v>0.08448718515007658</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.179580322958539</v>
+      </c>
+      <c r="H49">
+        <v>0.1699493120353249</v>
+      </c>
+      <c r="I49">
+        <v>-0.1785529447411478</v>
+      </c>
+      <c r="J49">
+        <v>0.2270580183170695</v>
+      </c>
+      <c r="K49">
+        <v>0.1896979421202792</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05559409874921453</v>
+        <v>-0.04309270890910979</v>
       </c>
       <c r="C50">
-        <v>-0.01447377892692286</v>
+        <v>-0.02826124037425924</v>
       </c>
       <c r="D50">
-        <v>0.005447099501067939</v>
+        <v>0.002361904672337098</v>
       </c>
       <c r="E50">
-        <v>0.02816403347912542</v>
+        <v>-0.002398550918252721</v>
       </c>
       <c r="F50">
-        <v>0.05216388905396077</v>
+        <v>0.0006787981997604489</v>
       </c>
       <c r="G50">
-        <v>0.003058598926901997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.04689694884185993</v>
+      </c>
+      <c r="H50">
+        <v>-0.03198240384939502</v>
+      </c>
+      <c r="I50">
+        <v>0.0192996961729738</v>
+      </c>
+      <c r="J50">
+        <v>-0.02425290934391917</v>
+      </c>
+      <c r="K50">
+        <v>0.02523743355820365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03479596518734591</v>
+        <v>-0.02035481560907888</v>
       </c>
       <c r="C51">
-        <v>-0.01387409894384688</v>
+        <v>0.001317600036775591</v>
       </c>
       <c r="D51">
-        <v>-0.01317414613793312</v>
+        <v>-0.01150994463142378</v>
       </c>
       <c r="E51">
-        <v>-0.01062060591986769</v>
+        <v>0.01194622466528018</v>
       </c>
       <c r="F51">
-        <v>-0.001379326988159469</v>
+        <v>-0.02096640632870399</v>
       </c>
       <c r="G51">
-        <v>-0.002768026194434629</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03014843782872123</v>
+      </c>
+      <c r="H51">
+        <v>0.01141495545735052</v>
+      </c>
+      <c r="I51">
+        <v>-0.01517036697024921</v>
+      </c>
+      <c r="J51">
+        <v>0.03207767018887163</v>
+      </c>
+      <c r="K51">
+        <v>0.02212465705887716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.06951588228869461</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.0355629547964777</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01560070802582465</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01728986716530677</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01511638640964029</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.06237359938622995</v>
+      </c>
+      <c r="H52">
+        <v>0.03145663078947297</v>
+      </c>
+      <c r="I52">
+        <v>0.1211826615236607</v>
+      </c>
+      <c r="J52">
+        <v>-0.007269265650710103</v>
+      </c>
+      <c r="K52">
+        <v>0.0004035434653010331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1592571757842875</v>
+        <v>-0.1608064435087135</v>
       </c>
       <c r="C53">
-        <v>-0.0007928003195284278</v>
+        <v>-0.03750310014818154</v>
       </c>
       <c r="D53">
-        <v>-0.01333475670129521</v>
+        <v>0.009720342479759572</v>
       </c>
       <c r="E53">
-        <v>-0.04637481079683808</v>
+        <v>0.01732917643396624</v>
       </c>
       <c r="F53">
-        <v>0.229068978817056</v>
+        <v>-0.01506248008213458</v>
       </c>
       <c r="G53">
-        <v>0.05794146936688771</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.03084599825317079</v>
+      </c>
+      <c r="H53">
+        <v>0.118332198520321</v>
+      </c>
+      <c r="I53">
+        <v>0.2643556509062497</v>
+      </c>
+      <c r="J53">
+        <v>-0.0811461234125969</v>
+      </c>
+      <c r="K53">
+        <v>0.07286769364741316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.0536003888846603</v>
+        <v>-0.05191887805063179</v>
       </c>
       <c r="C54">
-        <v>-0.004522185950736974</v>
+        <v>-0.03790231947868879</v>
       </c>
       <c r="D54">
-        <v>-0.02833659959792742</v>
+        <v>0.001270094134522317</v>
       </c>
       <c r="E54">
-        <v>0.04344974516628585</v>
+        <v>-0.01096268793149638</v>
       </c>
       <c r="F54">
-        <v>0.01614798280217865</v>
+        <v>-0.022742655278014</v>
       </c>
       <c r="G54">
-        <v>-0.07711495521014562</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.06292312341244126</v>
+      </c>
+      <c r="H54">
+        <v>-0.1377292211748191</v>
+      </c>
+      <c r="I54">
+        <v>0.004017695644703563</v>
+      </c>
+      <c r="J54">
+        <v>-0.1071126330846792</v>
+      </c>
+      <c r="K54">
+        <v>-0.09975616829210582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09377669662945722</v>
+        <v>-0.08754431854578693</v>
       </c>
       <c r="C55">
-        <v>-0.01478515778778653</v>
+        <v>-0.03327008969781029</v>
       </c>
       <c r="D55">
-        <v>-0.01968912766826721</v>
+        <v>-0.04464533612949662</v>
       </c>
       <c r="E55">
-        <v>0.005566524197610091</v>
+        <v>0.04636379629550669</v>
       </c>
       <c r="F55">
-        <v>0.1732546094264829</v>
+        <v>-0.01825530984410971</v>
       </c>
       <c r="G55">
-        <v>0.01157856304576294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02216314845003185</v>
+      </c>
+      <c r="H55">
+        <v>0.02908595006862635</v>
+      </c>
+      <c r="I55">
+        <v>0.1627816601816638</v>
+      </c>
+      <c r="J55">
+        <v>-0.03506244115713664</v>
+      </c>
+      <c r="K55">
+        <v>0.01974896454076283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1601579986190832</v>
+        <v>-0.15777767819298</v>
       </c>
       <c r="C56">
-        <v>0.002901303991020839</v>
+        <v>-0.04719882708856014</v>
       </c>
       <c r="D56">
-        <v>-0.008355518708201899</v>
+        <v>-0.01184107946541612</v>
       </c>
       <c r="E56">
-        <v>-0.04653999597521639</v>
+        <v>0.04795346251704585</v>
       </c>
       <c r="F56">
-        <v>0.2297024424174001</v>
+        <v>-0.02560259654300727</v>
       </c>
       <c r="G56">
-        <v>0.06620006260316207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.05916297522155995</v>
+      </c>
+      <c r="H56">
+        <v>0.08381162062736759</v>
+      </c>
+      <c r="I56">
+        <v>0.2250204504047068</v>
+      </c>
+      <c r="J56">
+        <v>-0.05200322118212151</v>
+      </c>
+      <c r="K56">
+        <v>0.06896529799503948</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03222733243635392</v>
+        <v>-0.04346229282954764</v>
       </c>
       <c r="C58">
-        <v>-0.05710322081499689</v>
+        <v>-0.04250645807706539</v>
       </c>
       <c r="D58">
-        <v>0.02857155720863764</v>
+        <v>-0.01819600128163391</v>
       </c>
       <c r="E58">
-        <v>0.2779786440344849</v>
+        <v>-0.06897044956730777</v>
       </c>
       <c r="F58">
-        <v>-0.4977464144245626</v>
+        <v>-0.04363031075338282</v>
       </c>
       <c r="G58">
-        <v>-0.1506767650471092</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.110022840515302</v>
+      </c>
+      <c r="H58">
+        <v>0.01341136769902665</v>
+      </c>
+      <c r="I58">
+        <v>-0.2009666790032208</v>
+      </c>
+      <c r="J58">
+        <v>0.03849943409838604</v>
+      </c>
+      <c r="K58">
+        <v>-0.224470299897335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.154301538215547</v>
+        <v>-0.1911735282677895</v>
       </c>
       <c r="C59">
-        <v>0.3883222920869697</v>
+        <v>0.3015239458137769</v>
       </c>
       <c r="D59">
-        <v>-0.08256505760051981</v>
+        <v>-0.01165626211962189</v>
       </c>
       <c r="E59">
-        <v>-0.07323724389827196</v>
+        <v>0.04604615419834087</v>
       </c>
       <c r="F59">
-        <v>0.04367874345907897</v>
+        <v>-0.006214479508224826</v>
       </c>
       <c r="G59">
-        <v>-0.03124302500272215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.03544062653279127</v>
+      </c>
+      <c r="H59">
+        <v>-0.0577871843287711</v>
+      </c>
+      <c r="I59">
+        <v>0.07021144209258101</v>
+      </c>
+      <c r="J59">
+        <v>0.009406817948405486</v>
+      </c>
+      <c r="K59">
+        <v>-0.003447575469743067</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2662785496960707</v>
+        <v>-0.249691491982279</v>
       </c>
       <c r="C60">
-        <v>-0.06207437047472174</v>
+        <v>-0.1094882103549755</v>
       </c>
       <c r="D60">
-        <v>-0.07651524358497053</v>
+        <v>0.08446081629009536</v>
       </c>
       <c r="E60">
-        <v>-0.08480778967742561</v>
+        <v>0.0696307800900835</v>
       </c>
       <c r="F60">
-        <v>-0.07969497483310208</v>
+        <v>-0.03769052328430914</v>
       </c>
       <c r="G60">
-        <v>0.1964461885784871</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.06917084131692142</v>
+      </c>
+      <c r="H60">
+        <v>0.1281489214454769</v>
+      </c>
+      <c r="I60">
+        <v>-0.1226278721351736</v>
+      </c>
+      <c r="J60">
+        <v>-0.005976465486723738</v>
+      </c>
+      <c r="K60">
+        <v>0.2203626429207119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.09408184987976349</v>
+        <v>-0.1042329806205145</v>
       </c>
       <c r="C61">
-        <v>-0.01693611288816733</v>
+        <v>-0.04594436646001818</v>
       </c>
       <c r="D61">
-        <v>-0.006036533235716812</v>
+        <v>-0.03973589741355919</v>
       </c>
       <c r="E61">
-        <v>0.02144942093008354</v>
+        <v>0.08063565367353659</v>
       </c>
       <c r="F61">
-        <v>0.02134201588255318</v>
+        <v>-0.0008143119267004483</v>
       </c>
       <c r="G61">
-        <v>-0.06741731960722094</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.1143038792061926</v>
+      </c>
+      <c r="H61">
+        <v>-0.09466059860375603</v>
+      </c>
+      <c r="I61">
+        <v>0.03935127342877512</v>
+      </c>
+      <c r="J61">
+        <v>0.1046776275259345</v>
+      </c>
+      <c r="K61">
+        <v>-0.007366890426405912</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1454977464739787</v>
+        <v>-0.1513790400343752</v>
       </c>
       <c r="C62">
-        <v>-0.02570992333543388</v>
+        <v>-0.0484276010736389</v>
       </c>
       <c r="D62">
-        <v>0.03252441416204572</v>
+        <v>-0.01253627821249953</v>
       </c>
       <c r="E62">
-        <v>-0.1167507038155233</v>
+        <v>0.04349238221442104</v>
       </c>
       <c r="F62">
-        <v>0.2398629516484713</v>
+        <v>0.0007932655764000752</v>
       </c>
       <c r="G62">
-        <v>0.02896303866232133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.03376922373732655</v>
+      </c>
+      <c r="H62">
+        <v>0.1004088868401827</v>
+      </c>
+      <c r="I62">
+        <v>0.2210364712645147</v>
+      </c>
+      <c r="J62">
+        <v>-0.07844429247893146</v>
+      </c>
+      <c r="K62">
+        <v>0.04980776961726886</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.04330999425636868</v>
+        <v>-0.04149423531706682</v>
       </c>
       <c r="C63">
-        <v>-0.01204194138328557</v>
+        <v>-0.01357218228435905</v>
       </c>
       <c r="D63">
-        <v>0.0059995085575628</v>
+        <v>-0.01669806824386283</v>
       </c>
       <c r="E63">
-        <v>0.01352239196430417</v>
+        <v>-0.007266520015443591</v>
       </c>
       <c r="F63">
-        <v>0.02150364395586305</v>
+        <v>0.02027346692533759</v>
       </c>
       <c r="G63">
-        <v>-0.04599233715228348</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.04416686615270687</v>
+      </c>
+      <c r="H63">
+        <v>-0.05772928157500064</v>
+      </c>
+      <c r="I63">
+        <v>-0.01848322181963768</v>
+      </c>
+      <c r="J63">
+        <v>-0.00225337412234695</v>
+      </c>
+      <c r="K63">
+        <v>0.004667983444132625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1067866510920905</v>
+        <v>-0.09975811906923496</v>
       </c>
       <c r="C64">
-        <v>-0.00976934885162754</v>
+        <v>-0.0371460660644215</v>
       </c>
       <c r="D64">
-        <v>-0.03926676884767814</v>
+        <v>0.0143083639250313</v>
       </c>
       <c r="E64">
-        <v>0.03250141104048759</v>
+        <v>0.02659797697919383</v>
       </c>
       <c r="F64">
-        <v>-0.02106341233039798</v>
+        <v>-0.0449401331863325</v>
       </c>
       <c r="G64">
-        <v>-0.04899285988663929</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06874518362136973</v>
+      </c>
+      <c r="H64">
+        <v>-0.05402970305787504</v>
+      </c>
+      <c r="I64">
+        <v>-0.08154384767847726</v>
+      </c>
+      <c r="J64">
+        <v>0.02076575215606846</v>
+      </c>
+      <c r="K64">
+        <v>0.05056590633676687</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1218181049640974</v>
+        <v>-0.1174800097083698</v>
       </c>
       <c r="C65">
-        <v>-0.02714834357308165</v>
+        <v>-0.02961593337160863</v>
       </c>
       <c r="D65">
-        <v>-0.02603677755608118</v>
+        <v>0.0001364483455652059</v>
       </c>
       <c r="E65">
-        <v>0.05721504696251855</v>
+        <v>-0.01666961758202756</v>
       </c>
       <c r="F65">
-        <v>-0.177087450761565</v>
+        <v>0.02781247740325507</v>
       </c>
       <c r="G65">
-        <v>0.1778630854564357</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0442170152714509</v>
+      </c>
+      <c r="H65">
+        <v>0.003375637651632088</v>
+      </c>
+      <c r="I65">
+        <v>-0.280177938880553</v>
+      </c>
+      <c r="J65">
+        <v>-0.5047505034413357</v>
+      </c>
+      <c r="K65">
+        <v>0.2719932294660734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1600236290690356</v>
+        <v>-0.1414180695514802</v>
       </c>
       <c r="C66">
-        <v>-0.05205715968835136</v>
+        <v>-0.1046180971645332</v>
       </c>
       <c r="D66">
-        <v>0.02118688859691075</v>
+        <v>-0.06281498621084994</v>
       </c>
       <c r="E66">
-        <v>0.01590829537877754</v>
+        <v>0.112765936068638</v>
       </c>
       <c r="F66">
-        <v>0.03569465909094216</v>
+        <v>0.04037403825568166</v>
       </c>
       <c r="G66">
-        <v>-0.3048077681871742</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1248462942721396</v>
+      </c>
+      <c r="H66">
+        <v>-0.0633422958292125</v>
+      </c>
+      <c r="I66">
+        <v>-0.00428181572897439</v>
+      </c>
+      <c r="J66">
+        <v>0.2330752128107187</v>
+      </c>
+      <c r="K66">
+        <v>0.1018293340106725</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1063300660903937</v>
+        <v>-0.07192894550850237</v>
       </c>
       <c r="C67">
-        <v>-0.03818379477597021</v>
+        <v>-0.03475701766491942</v>
       </c>
       <c r="D67">
-        <v>-0.02039442927730009</v>
+        <v>-0.05913606753948661</v>
       </c>
       <c r="E67">
-        <v>-0.01391689223734272</v>
+        <v>0.02231132575814622</v>
       </c>
       <c r="F67">
-        <v>0.0109662426909335</v>
+        <v>-0.03354561422621895</v>
       </c>
       <c r="G67">
-        <v>-0.04155652464245326</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.06983177777742312</v>
+      </c>
+      <c r="H67">
+        <v>0.02392616776186439</v>
+      </c>
+      <c r="I67">
+        <v>0.009940561728728143</v>
+      </c>
+      <c r="J67">
+        <v>0.03461262584723948</v>
+      </c>
+      <c r="K67">
+        <v>0.06407586771390639</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.04070843596307144</v>
+        <v>-0.1030907541443681</v>
       </c>
       <c r="C68">
-        <v>0.2947780533752289</v>
+        <v>0.2794440249257067</v>
       </c>
       <c r="D68">
-        <v>-0.03740826267931548</v>
+        <v>-0.005682862850721879</v>
       </c>
       <c r="E68">
-        <v>-0.008478979022179093</v>
+        <v>0.004272180824591913</v>
       </c>
       <c r="F68">
-        <v>-0.009948670359132428</v>
+        <v>0.01556748545401965</v>
       </c>
       <c r="G68">
-        <v>0.02295432099211856</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.0228492936019495</v>
+      </c>
+      <c r="H68">
+        <v>-0.03088281533761286</v>
+      </c>
+      <c r="I68">
+        <v>-0.003849182218578276</v>
+      </c>
+      <c r="J68">
+        <v>-0.01644089703403597</v>
+      </c>
+      <c r="K68">
+        <v>0.01166016997064513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.0454675808680576</v>
+        <v>-0.03575299414187582</v>
       </c>
       <c r="C69">
-        <v>-0.01624600009920701</v>
+        <v>-0.00113288562915816</v>
       </c>
       <c r="D69">
-        <v>-0.008580500783850104</v>
+        <v>-0.02570246217811517</v>
       </c>
       <c r="E69">
-        <v>-0.002212138647813616</v>
+        <v>0.01325252684787036</v>
       </c>
       <c r="F69">
-        <v>0.01228320514893624</v>
+        <v>-0.01998749799124696</v>
       </c>
       <c r="G69">
-        <v>-0.03075835493447466</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01279268012732734</v>
+      </c>
+      <c r="H69">
+        <v>-0.001759436911211716</v>
+      </c>
+      <c r="I69">
+        <v>0.007999686783867191</v>
+      </c>
+      <c r="J69">
+        <v>-0.02956016249362461</v>
+      </c>
+      <c r="K69">
+        <v>0.01164456744629929</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.07520431232819244</v>
+        <v>-0.04614018636217766</v>
       </c>
       <c r="C70">
-        <v>-0.007768340211369603</v>
+        <v>-0.01053502181259258</v>
       </c>
       <c r="D70">
-        <v>-0.03469555511863298</v>
+        <v>-0.01883819062084658</v>
       </c>
       <c r="E70">
-        <v>-0.03357611793460304</v>
+        <v>0.05081721738558384</v>
       </c>
       <c r="F70">
-        <v>-0.07845813679777359</v>
+        <v>-0.01972897007550505</v>
       </c>
       <c r="G70">
-        <v>0.007195622271082685</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.02528594613907605</v>
+      </c>
+      <c r="H70">
+        <v>-0.01716383923645373</v>
+      </c>
+      <c r="I70">
+        <v>-0.07024158722619543</v>
+      </c>
+      <c r="J70">
+        <v>-0.1247263789658151</v>
+      </c>
+      <c r="K70">
+        <v>-0.1579141848174062</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.05060503289900281</v>
+        <v>-0.1182464763087252</v>
       </c>
       <c r="C71">
-        <v>0.2982835236703053</v>
+        <v>0.2920154021988542</v>
       </c>
       <c r="D71">
-        <v>-0.05539704821816191</v>
+        <v>0.005394942421669542</v>
       </c>
       <c r="E71">
-        <v>-0.01175158107641906</v>
+        <v>0.01225211020990373</v>
       </c>
       <c r="F71">
-        <v>-0.01244345027543073</v>
+        <v>-0.01050502219735538</v>
       </c>
       <c r="G71">
-        <v>-0.0108099014671464</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03979529875971333</v>
+      </c>
+      <c r="H71">
+        <v>-0.02782762578272914</v>
+      </c>
+      <c r="I71">
+        <v>-0.005230321521802321</v>
+      </c>
+      <c r="J71">
+        <v>0.01429204098116944</v>
+      </c>
+      <c r="K71">
+        <v>0.04072277095041971</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1471194978291061</v>
+        <v>-0.1477020049722158</v>
       </c>
       <c r="C72">
-        <v>0.04620541055755245</v>
+        <v>-0.01195463290616835</v>
       </c>
       <c r="D72">
-        <v>0.2364122330212449</v>
+        <v>-0.03435205427205867</v>
       </c>
       <c r="E72">
-        <v>-0.0286228191942158</v>
+        <v>-0.04859467858929139</v>
       </c>
       <c r="F72">
-        <v>0.03785691265839779</v>
+        <v>0.08881733206897764</v>
       </c>
       <c r="G72">
-        <v>-0.0564329193955038</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.002869962823477124</v>
+      </c>
+      <c r="H72">
+        <v>0.01020846034268371</v>
+      </c>
+      <c r="I72">
+        <v>0.04833012727644258</v>
+      </c>
+      <c r="J72">
+        <v>-0.1008222379760401</v>
+      </c>
+      <c r="K72">
+        <v>0.125366365329498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2840523956525746</v>
+        <v>-0.2384029402900219</v>
       </c>
       <c r="C73">
-        <v>-0.1574658196216026</v>
+        <v>-0.1176452791242449</v>
       </c>
       <c r="D73">
-        <v>-0.04349329805911104</v>
+        <v>0.01116105103277932</v>
       </c>
       <c r="E73">
-        <v>-0.1648240419122625</v>
+        <v>0.1621411257046748</v>
       </c>
       <c r="F73">
-        <v>-0.3037389941151928</v>
+        <v>-0.06599750568676914</v>
       </c>
       <c r="G73">
-        <v>0.258778829091822</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2864242098805757</v>
+      </c>
+      <c r="H73">
+        <v>0.3394193592310849</v>
+      </c>
+      <c r="I73">
+        <v>-0.3075407915619698</v>
+      </c>
+      <c r="J73">
+        <v>0.2622519323712809</v>
+      </c>
+      <c r="K73">
+        <v>0.1100953691465502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.09855712567951962</v>
+        <v>-0.1119921100570261</v>
       </c>
       <c r="C74">
-        <v>-0.04029853609926944</v>
+        <v>-0.06179104128456928</v>
       </c>
       <c r="D74">
-        <v>-0.0007512840117399553</v>
+        <v>-0.03172492127985101</v>
       </c>
       <c r="E74">
-        <v>-0.009570982933279768</v>
+        <v>0.0192974498804569</v>
       </c>
       <c r="F74">
-        <v>0.09940800022791822</v>
+        <v>-0.01330614126688481</v>
       </c>
       <c r="G74">
-        <v>0.02874820293082262</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06804474626352379</v>
+      </c>
+      <c r="H74">
+        <v>0.09562206020531756</v>
+      </c>
+      <c r="I74">
+        <v>0.1262825313708742</v>
+      </c>
+      <c r="J74">
+        <v>-0.0351251269452534</v>
+      </c>
+      <c r="K74">
+        <v>0.02838957655793043</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09279510193475984</v>
+        <v>-0.1079853536652946</v>
       </c>
       <c r="C75">
-        <v>-0.01656890373629093</v>
+        <v>-0.04517123520801031</v>
       </c>
       <c r="D75">
-        <v>0.02000190197730424</v>
+        <v>-0.006402203027121424</v>
       </c>
       <c r="E75">
-        <v>-0.03123317817623184</v>
+        <v>0.006562712051388499</v>
       </c>
       <c r="F75">
-        <v>0.1130097704901249</v>
+        <v>0.005733083444061138</v>
       </c>
       <c r="G75">
-        <v>0.06419031593002406</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.005693323067333045</v>
+      </c>
+      <c r="H75">
+        <v>0.05226274482379644</v>
+      </c>
+      <c r="I75">
+        <v>0.1457305073404677</v>
+      </c>
+      <c r="J75">
+        <v>-0.03947410500986473</v>
+      </c>
+      <c r="K75">
+        <v>-0.000165584928640494</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1375444069120423</v>
+        <v>-0.05754199046846429</v>
       </c>
       <c r="C76">
-        <v>-0.03130117678519878</v>
+        <v>-0.03091087918626974</v>
       </c>
       <c r="D76">
-        <v>-0.01997931107481499</v>
+        <v>-0.02810739079900717</v>
       </c>
       <c r="E76">
-        <v>0.02364585849048589</v>
+        <v>0.02051997615430539</v>
       </c>
       <c r="F76">
-        <v>0.2124082550019581</v>
+        <v>-0.03754149263666978</v>
       </c>
       <c r="G76">
-        <v>0.0998175824469975</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.02919960969414997</v>
+      </c>
+      <c r="H76">
+        <v>0.06193384183911088</v>
+      </c>
+      <c r="I76">
+        <v>0.1366974296754761</v>
+      </c>
+      <c r="J76">
+        <v>-0.03193548224090149</v>
+      </c>
+      <c r="K76">
+        <v>0.01063827856600469</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08962943719131287</v>
+        <v>-0.07200733392080649</v>
       </c>
       <c r="C77">
-        <v>0.01167467349026045</v>
+        <v>-0.03110866162791494</v>
       </c>
       <c r="D77">
-        <v>-0.04137220937590282</v>
+        <v>0.02116458666614104</v>
       </c>
       <c r="E77">
-        <v>0.04742607513780982</v>
+        <v>0.01005123890746275</v>
       </c>
       <c r="F77">
-        <v>-0.1579448014501646</v>
+        <v>-0.03705067070408712</v>
       </c>
       <c r="G77">
-        <v>-0.1716823493430321</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.04579422335948903</v>
+      </c>
+      <c r="H77">
+        <v>-0.2341515992628628</v>
+      </c>
+      <c r="I77">
+        <v>-0.1422864209326412</v>
+      </c>
+      <c r="J77">
+        <v>-0.09178445497345795</v>
+      </c>
+      <c r="K77">
+        <v>0.1462520073604817</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2165193100159068</v>
+        <v>-0.1505517269871451</v>
       </c>
       <c r="C78">
-        <v>-0.06913613453690538</v>
+        <v>-0.1194058615399688</v>
       </c>
       <c r="D78">
-        <v>-0.06779316194186806</v>
+        <v>-0.108953962423948</v>
       </c>
       <c r="E78">
-        <v>0.1786998598215488</v>
+        <v>-0.1991032076985352</v>
       </c>
       <c r="F78">
-        <v>0.02331036073855588</v>
+        <v>-0.1184842860807361</v>
       </c>
       <c r="G78">
-        <v>-0.1116844467624688</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.6863162615464803</v>
+      </c>
+      <c r="H78">
+        <v>-0.5351265875363638</v>
+      </c>
+      <c r="I78">
+        <v>0.2411491208464482</v>
+      </c>
+      <c r="J78">
+        <v>0.05635092352459756</v>
+      </c>
+      <c r="K78">
+        <v>8.960057589127387e-05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1361189144625314</v>
+        <v>-0.1346496986998154</v>
       </c>
       <c r="C79">
-        <v>-0.01386178004780259</v>
+        <v>-0.04862257827129898</v>
       </c>
       <c r="D79">
-        <v>-0.00159524956100476</v>
+        <v>0.01082036834659383</v>
       </c>
       <c r="E79">
-        <v>-0.01190104573214733</v>
+        <v>0.01572047909804685</v>
       </c>
       <c r="F79">
-        <v>0.1651385434724587</v>
+        <v>-0.001096926459074182</v>
       </c>
       <c r="G79">
-        <v>0.0002731123709106441</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.05178439674495269</v>
+      </c>
+      <c r="H79">
+        <v>0.05856261601159441</v>
+      </c>
+      <c r="I79">
+        <v>0.1535304231246947</v>
+      </c>
+      <c r="J79">
+        <v>-0.06745821667165432</v>
+      </c>
+      <c r="K79">
+        <v>0.05643633535613939</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03395435850278865</v>
+        <v>-0.0608227542811651</v>
       </c>
       <c r="C80">
-        <v>-0.009789525360611296</v>
+        <v>-0.04252128929428394</v>
       </c>
       <c r="D80">
-        <v>-0.01779461759591088</v>
+        <v>-0.03729943883424457</v>
       </c>
       <c r="E80">
-        <v>-0.02973006367542312</v>
+        <v>0.07295680053790024</v>
       </c>
       <c r="F80">
-        <v>-0.01929010622407663</v>
+        <v>-0.01219057841186148</v>
       </c>
       <c r="G80">
-        <v>-0.07105370239549239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.02160305142226724</v>
+      </c>
+      <c r="H80">
+        <v>-0.05148801730910655</v>
+      </c>
+      <c r="I80">
+        <v>-0.01049926183799801</v>
+      </c>
+      <c r="J80">
+        <v>0.002092071350019411</v>
+      </c>
+      <c r="K80">
+        <v>-0.1086914099987168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1085408578168516</v>
+        <v>-0.1294781073803696</v>
       </c>
       <c r="C81">
-        <v>-0.01047953230497791</v>
+        <v>-0.05432604081384805</v>
       </c>
       <c r="D81">
-        <v>-0.009965784509836753</v>
+        <v>-0.003609549195001134</v>
       </c>
       <c r="E81">
-        <v>-0.0138179049511149</v>
+        <v>0.01539537218496894</v>
       </c>
       <c r="F81">
-        <v>0.1391205935043784</v>
+        <v>-0.01414805098069371</v>
       </c>
       <c r="G81">
-        <v>0.03855292957935656</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.06251447129469215</v>
+      </c>
+      <c r="H81">
+        <v>0.03100973228411186</v>
+      </c>
+      <c r="I81">
+        <v>0.1498562496619299</v>
+      </c>
+      <c r="J81">
+        <v>-0.02386412648392105</v>
+      </c>
+      <c r="K81">
+        <v>0.001484238428642108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1087323682254202</v>
+        <v>-0.1426567253284458</v>
       </c>
       <c r="C82">
-        <v>-0.0297315268499934</v>
+        <v>-0.04717230791805109</v>
       </c>
       <c r="D82">
-        <v>-0.05708883590724716</v>
+        <v>0.005942560497276594</v>
       </c>
       <c r="E82">
-        <v>-0.05388593957835773</v>
+        <v>0.06513230668774068</v>
       </c>
       <c r="F82">
-        <v>0.2146416559308133</v>
+        <v>-0.01198838622734177</v>
       </c>
       <c r="G82">
-        <v>-0.0007248885949391205</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.07545913941295097</v>
+      </c>
+      <c r="H82">
+        <v>0.1246337226833615</v>
+      </c>
+      <c r="I82">
+        <v>0.2604179808436696</v>
+      </c>
+      <c r="J82">
+        <v>0.005682467745539668</v>
+      </c>
+      <c r="K82">
+        <v>-0.03356029440814183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.1038986020218118</v>
+        <v>-0.09206621091789416</v>
       </c>
       <c r="C83">
-        <v>-0.05598570472453541</v>
+        <v>-0.1051083420982171</v>
       </c>
       <c r="D83">
-        <v>-0.05431485159736132</v>
+        <v>-0.0185289871286899</v>
       </c>
       <c r="E83">
-        <v>-0.02599271994455802</v>
+        <v>0.01286392773031849</v>
       </c>
       <c r="F83">
-        <v>-0.08082937968616935</v>
+        <v>-0.02921194498622324</v>
       </c>
       <c r="G83">
-        <v>-0.07359887512374533</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.01982098030243141</v>
+      </c>
+      <c r="H83">
+        <v>-0.04994799303313291</v>
+      </c>
+      <c r="I83">
+        <v>-0.02882059733904546</v>
+      </c>
+      <c r="J83">
+        <v>-0.1235401008447755</v>
+      </c>
+      <c r="K83">
+        <v>-0.08473567790726853</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.04946454047436422</v>
+        <v>-0.05322590549099183</v>
       </c>
       <c r="C84">
-        <v>-0.02251668303236615</v>
+        <v>0.02577809940733027</v>
       </c>
       <c r="D84">
-        <v>0.04815821252414546</v>
+        <v>0.03458380034928393</v>
       </c>
       <c r="E84">
-        <v>0.03240186735901326</v>
+        <v>0.01558142152929973</v>
       </c>
       <c r="F84">
-        <v>0.01970811370190849</v>
+        <v>0.0171764851153294</v>
       </c>
       <c r="G84">
-        <v>0.02339797089077776</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.05751666518797376</v>
+      </c>
+      <c r="H84">
+        <v>-0.02388458579920264</v>
+      </c>
+      <c r="I84">
+        <v>-0.06126905907690888</v>
+      </c>
+      <c r="J84">
+        <v>0.333910492837692</v>
+      </c>
+      <c r="K84">
+        <v>-0.1863215183387029</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1010148860563987</v>
+        <v>-0.1176113310022916</v>
       </c>
       <c r="C85">
-        <v>-0.02145049264748794</v>
+        <v>-0.04318073935998311</v>
       </c>
       <c r="D85">
-        <v>-0.02556669015908183</v>
+        <v>0.00578387037754002</v>
       </c>
       <c r="E85">
-        <v>-0.0190806264595329</v>
+        <v>0.03418802666558534</v>
       </c>
       <c r="F85">
-        <v>0.1945820831114819</v>
+        <v>-0.02590628556574293</v>
       </c>
       <c r="G85">
-        <v>0.0168888938558724</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.0456637066795858</v>
+      </c>
+      <c r="H85">
+        <v>0.0490849713434578</v>
+      </c>
+      <c r="I85">
+        <v>0.187770431347725</v>
+      </c>
+      <c r="J85">
+        <v>-0.05291296676516706</v>
+      </c>
+      <c r="K85">
+        <v>0.05913916495282163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06919600579953919</v>
+        <v>-0.1401725498253844</v>
       </c>
       <c r="C86">
-        <v>-0.02368917274979197</v>
+        <v>-0.09375513474645604</v>
       </c>
       <c r="D86">
-        <v>-0.0495040982617642</v>
+        <v>0.8667252457591336</v>
       </c>
       <c r="E86">
-        <v>0.05178971468124283</v>
+        <v>-0.299914822043084</v>
       </c>
       <c r="F86">
-        <v>-0.01231585349477612</v>
+        <v>0.2292811277220598</v>
       </c>
       <c r="G86">
-        <v>-0.1230972931724499</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06698338731905372</v>
+      </c>
+      <c r="H86">
+        <v>-0.09971917871181779</v>
+      </c>
+      <c r="I86">
+        <v>0.03958982945592745</v>
+      </c>
+      <c r="J86">
+        <v>0.06175982367024215</v>
+      </c>
+      <c r="K86">
+        <v>-0.03032802463957026</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1031779733455053</v>
+        <v>-0.1133414169703602</v>
       </c>
       <c r="C87">
-        <v>-0.05763729624738306</v>
+        <v>-0.08878777835161894</v>
       </c>
       <c r="D87">
-        <v>-0.01832694856462164</v>
+        <v>0.005641144851965992</v>
       </c>
       <c r="E87">
-        <v>0.0589222966752402</v>
+        <v>0.01164110877677271</v>
       </c>
       <c r="F87">
-        <v>-0.02383438091735976</v>
+        <v>-0.02913815598891735</v>
       </c>
       <c r="G87">
-        <v>-0.1152604671886409</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.05520348911713086</v>
+      </c>
+      <c r="H87">
+        <v>-0.139122284841531</v>
+      </c>
+      <c r="I87">
+        <v>-0.113310133792334</v>
+      </c>
+      <c r="J87">
+        <v>-0.1154388566946938</v>
+      </c>
+      <c r="K87">
+        <v>-0.06888856874847975</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06886131468125475</v>
+        <v>-0.05772025565449583</v>
       </c>
       <c r="C88">
-        <v>-0.03531742286164676</v>
+        <v>-0.04770615582826362</v>
       </c>
       <c r="D88">
-        <v>-0.02234345190044367</v>
+        <v>-0.01826024989927488</v>
       </c>
       <c r="E88">
-        <v>0.01031429319060313</v>
+        <v>0.05822148208671789</v>
       </c>
       <c r="F88">
-        <v>0.0001233273193945153</v>
+        <v>0.003260965563534529</v>
       </c>
       <c r="G88">
-        <v>-0.06366724901888954</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02630097848066058</v>
+      </c>
+      <c r="H88">
+        <v>-0.01327301599092254</v>
+      </c>
+      <c r="I88">
+        <v>-0.007660210067996638</v>
+      </c>
+      <c r="J88">
+        <v>0.01765437994736851</v>
+      </c>
+      <c r="K88">
+        <v>0.008700586540029158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09519576685632358</v>
+        <v>-0.1710130674645576</v>
       </c>
       <c r="C89">
-        <v>0.3704549332016834</v>
+        <v>0.3728262108493385</v>
       </c>
       <c r="D89">
-        <v>-0.1095163209508229</v>
+        <v>0.01177677679733457</v>
       </c>
       <c r="E89">
-        <v>0.01599377325251607</v>
+        <v>-0.02581453252384418</v>
       </c>
       <c r="F89">
-        <v>-0.06220403857102517</v>
+        <v>-0.06804775898727014</v>
       </c>
       <c r="G89">
-        <v>-0.0146923146749587</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02410103152120245</v>
+      </c>
+      <c r="H89">
+        <v>-0.04013206007555333</v>
+      </c>
+      <c r="I89">
+        <v>-0.02933807459277155</v>
+      </c>
+      <c r="J89">
+        <v>0.01206956897453663</v>
+      </c>
+      <c r="K89">
+        <v>-0.07175898160615483</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.07513323718499701</v>
+        <v>-0.1347596089262006</v>
       </c>
       <c r="C90">
-        <v>0.2973226164675669</v>
+        <v>0.2781458622427873</v>
       </c>
       <c r="D90">
-        <v>-0.04962318574499285</v>
+        <v>0.009783410921593487</v>
       </c>
       <c r="E90">
-        <v>0.04365340688240474</v>
+        <v>0.01415953079418187</v>
       </c>
       <c r="F90">
-        <v>-0.05489300298711437</v>
+        <v>-0.01120243027501348</v>
       </c>
       <c r="G90">
-        <v>-0.04794499052278933</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0271731200952033</v>
+      </c>
+      <c r="H90">
+        <v>-0.03634209432362628</v>
+      </c>
+      <c r="I90">
+        <v>-0.05161337153071942</v>
+      </c>
+      <c r="J90">
+        <v>0.04450388370037833</v>
+      </c>
+      <c r="K90">
+        <v>0.02951182618223803</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.08345216677820787</v>
+        <v>-0.08134211363118093</v>
       </c>
       <c r="C91">
-        <v>-0.02304177646581557</v>
+        <v>-0.03885344877654703</v>
       </c>
       <c r="D91">
-        <v>-0.004608867195470968</v>
+        <v>0.0167982829260144</v>
       </c>
       <c r="E91">
-        <v>-0.01561073908756783</v>
+        <v>0.009865729600902068</v>
       </c>
       <c r="F91">
-        <v>0.07862483751816898</v>
+        <v>-0.01225796887538268</v>
       </c>
       <c r="G91">
-        <v>0.06470758263591755</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01562673435651219</v>
+      </c>
+      <c r="H91">
+        <v>0.05164981095233805</v>
+      </c>
+      <c r="I91">
+        <v>0.1161949129097684</v>
+      </c>
+      <c r="J91">
+        <v>-0.03818288288461514</v>
+      </c>
+      <c r="K91">
+        <v>0.002920373891142283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.07017845122884867</v>
+        <v>-0.1448965617726137</v>
       </c>
       <c r="C92">
-        <v>0.3407995984223338</v>
+        <v>0.330336857177456</v>
       </c>
       <c r="D92">
-        <v>-0.07088715016397805</v>
+        <v>0.001425574956577418</v>
       </c>
       <c r="E92">
-        <v>0.0181733596675968</v>
+        <v>-0.02311895595322373</v>
       </c>
       <c r="F92">
-        <v>-0.04012715859167178</v>
+        <v>-0.03911704875116619</v>
       </c>
       <c r="G92">
-        <v>0.03202197111205237</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.001474450111025307</v>
+      </c>
+      <c r="H92">
+        <v>-0.07061575033719297</v>
+      </c>
+      <c r="I92">
+        <v>0.02984895607828097</v>
+      </c>
+      <c r="J92">
+        <v>0.02140101783721169</v>
+      </c>
+      <c r="K92">
+        <v>-0.002708548974461112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.08605546762565751</v>
+        <v>-0.139183854910037</v>
       </c>
       <c r="C93">
-        <v>0.2950591630033438</v>
+        <v>0.3094134740972228</v>
       </c>
       <c r="D93">
-        <v>-0.05131259296873083</v>
+        <v>0.03721038666802919</v>
       </c>
       <c r="E93">
-        <v>0.008321798677560317</v>
+        <v>0.02990467034707752</v>
       </c>
       <c r="F93">
-        <v>-0.02201637959309035</v>
+        <v>0.002459853742406799</v>
       </c>
       <c r="G93">
-        <v>0.005770309093512587</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02958519821163819</v>
+      </c>
+      <c r="H93">
+        <v>-0.007616934931419478</v>
+      </c>
+      <c r="I93">
+        <v>-0.02357437060021851</v>
+      </c>
+      <c r="J93">
+        <v>0.003978611998324013</v>
+      </c>
+      <c r="K93">
+        <v>-0.004769891785635946</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09238448353003149</v>
+        <v>-0.1214938008863537</v>
       </c>
       <c r="C94">
-        <v>-0.04586211392790678</v>
+        <v>-0.04939570530277474</v>
       </c>
       <c r="D94">
-        <v>0.005387937092486575</v>
+        <v>-0.02285841913010897</v>
       </c>
       <c r="E94">
-        <v>0.001534858934217181</v>
+        <v>0.008735567523674093</v>
       </c>
       <c r="F94">
-        <v>0.1255562924046053</v>
+        <v>-0.02706088740123062</v>
       </c>
       <c r="G94">
-        <v>0.06307348454330003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.01873336618650817</v>
+      </c>
+      <c r="H94">
+        <v>0.08882380948077406</v>
+      </c>
+      <c r="I94">
+        <v>0.1297683047781036</v>
+      </c>
+      <c r="J94">
+        <v>0.000900017822559509</v>
+      </c>
+      <c r="K94">
+        <v>0.02531870834258637</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1372067666610991</v>
+        <v>-0.120024340779847</v>
       </c>
       <c r="C95">
-        <v>-0.07134958613591999</v>
+        <v>-0.07024614472101685</v>
       </c>
       <c r="D95">
-        <v>-0.069070701866477</v>
+        <v>-0.01586511555970576</v>
       </c>
       <c r="E95">
-        <v>0.02360600876365492</v>
+        <v>0.01525060941314749</v>
       </c>
       <c r="F95">
-        <v>-0.05155400554674233</v>
+        <v>-0.07432956803848927</v>
       </c>
       <c r="G95">
-        <v>-0.1178081111172401</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.003610478999008242</v>
+      </c>
+      <c r="H95">
+        <v>-0.1087385567152269</v>
+      </c>
+      <c r="I95">
+        <v>-0.2265640754241217</v>
+      </c>
+      <c r="J95">
+        <v>0.03674988728620878</v>
+      </c>
+      <c r="K95">
+        <v>-0.144027966951204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.00849890510960276</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.002813712919833659</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.004351898600215095</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.005840376968640484</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.002709403644463411</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.008754740377964065</v>
+      </c>
+      <c r="H96">
+        <v>-0.0159883463634889</v>
+      </c>
+      <c r="I96">
+        <v>-0.00777336958564785</v>
+      </c>
+      <c r="J96">
+        <v>-0.01233286965054047</v>
+      </c>
+      <c r="K96">
+        <v>0.01754013475221389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.202008276235262</v>
+        <v>-0.1888536673967995</v>
       </c>
       <c r="C97">
-        <v>0.1457595308857238</v>
+        <v>-0.02003596907264092</v>
       </c>
       <c r="D97">
-        <v>0.9027325127116079</v>
+        <v>-0.3900682957237953</v>
       </c>
       <c r="E97">
-        <v>0.03505772250360639</v>
+        <v>-0.505430329064263</v>
       </c>
       <c r="F97">
-        <v>-0.04701266461572932</v>
+        <v>0.7016159833033982</v>
       </c>
       <c r="G97">
-        <v>-0.02434148385805296</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.03687047209013598</v>
+      </c>
+      <c r="H97">
+        <v>0.08540523960610194</v>
+      </c>
+      <c r="I97">
+        <v>-0.0565546760452566</v>
+      </c>
+      <c r="J97">
+        <v>0.05774698366771154</v>
+      </c>
+      <c r="K97">
+        <v>-0.02665490509120049</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.3169678130529932</v>
+        <v>-0.2681924711116446</v>
       </c>
       <c r="C98">
-        <v>-0.07290709962449697</v>
+        <v>-0.09242873750197451</v>
       </c>
       <c r="D98">
-        <v>-0.05303761497001907</v>
+        <v>0.03433347903981996</v>
       </c>
       <c r="E98">
-        <v>-0.2481327179261645</v>
+        <v>0.01767332815579047</v>
       </c>
       <c r="F98">
-        <v>-0.2082687749760998</v>
+        <v>-0.04131753307694225</v>
       </c>
       <c r="G98">
-        <v>0.2706552345217398</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2215299412112514</v>
+      </c>
+      <c r="H98">
+        <v>0.2778404391426887</v>
+      </c>
+      <c r="I98">
+        <v>-0.07964995091573547</v>
+      </c>
+      <c r="J98">
+        <v>-0.1858775758472384</v>
+      </c>
+      <c r="K98">
+        <v>-0.6326636209633062</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.08213001309025393</v>
+        <v>-0.05622461270327171</v>
       </c>
       <c r="C99">
-        <v>-0.03275838639349842</v>
+        <v>-0.02286225820733583</v>
       </c>
       <c r="D99">
-        <v>-0.007866004186840442</v>
+        <v>-0.03431378326293227</v>
       </c>
       <c r="E99">
-        <v>-0.01417450030757299</v>
+        <v>0.008727795597718685</v>
       </c>
       <c r="F99">
-        <v>0.01174410522213891</v>
+        <v>-0.03632012258150916</v>
       </c>
       <c r="G99">
-        <v>-0.01973872981313672</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.008197884384653005</v>
+      </c>
+      <c r="H99">
+        <v>0.002726385157737532</v>
+      </c>
+      <c r="I99">
+        <v>0.01333767873935815</v>
+      </c>
+      <c r="J99">
+        <v>0.03118659944929903</v>
+      </c>
+      <c r="K99">
+        <v>0.04618460609086439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.01655630104626331</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.0180282503764046</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.09673378307673049</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.04844387883101699</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.02552965219682264</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.05472399787892448</v>
+      </c>
+      <c r="H100">
+        <v>0.009738113213848218</v>
+      </c>
+      <c r="I100">
+        <v>0.04971739455090732</v>
+      </c>
+      <c r="J100">
+        <v>-0.01443960940832776</v>
+      </c>
+      <c r="K100">
+        <v>-0.2556583265714387</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05793306387248725</v>
+        <v>-0.0406178279056439</v>
       </c>
       <c r="C101">
-        <v>-0.007379489301415625</v>
+        <v>-0.02069433934068618</v>
       </c>
       <c r="D101">
-        <v>-0.03090559870296505</v>
+        <v>-0.007708166788474365</v>
       </c>
       <c r="E101">
-        <v>0.04164470489431764</v>
+        <v>0.03215590993999509</v>
       </c>
       <c r="F101">
-        <v>0.03728227464951397</v>
+        <v>-0.02108018283079369</v>
       </c>
       <c r="G101">
-        <v>-0.05027097012745858</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09316914305860828</v>
+      </c>
+      <c r="H101">
+        <v>-0.04587023932398427</v>
+      </c>
+      <c r="I101">
+        <v>0.006024252891406455</v>
+      </c>
+      <c r="J101">
+        <v>-0.04278454862976661</v>
+      </c>
+      <c r="K101">
+        <v>-0.05097370688638293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
